--- a/Data/EC/NIT-9003496898.xlsx
+++ b/Data/EC/NIT-9003496898.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABD9C7C-9E71-4872-87FF-72DB4AF9FCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D540566-CB1C-4BAB-92E5-D6C2A47E86A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{516C2D95-E59C-457D-A9AB-5AB25EEE44F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67E09DC9-4151-45B1-89EE-3B260239A0F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,43 +71,43 @@
     <t>WILMAN MALLARINO MARTINEZ</t>
   </si>
   <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>73191182</t>
+  </si>
+  <si>
+    <t>JAINER GOMEZ MARIMON</t>
+  </si>
+  <si>
+    <t>1047368039</t>
+  </si>
+  <si>
+    <t>ELKIN ZUÑIGA QUINTANA</t>
+  </si>
+  <si>
+    <t>73098243</t>
+  </si>
+  <si>
+    <t>WILSON MARTINEZ VERGARA</t>
+  </si>
+  <si>
+    <t>15049482</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL CALLE BEDOYA</t>
+  </si>
+  <si>
+    <t>73184551</t>
+  </si>
+  <si>
+    <t>CIRIN ESTEBAN CABARCAS PUERTAS</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
     <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>73191182</t>
-  </si>
-  <si>
-    <t>JAINER GOMEZ MARIMON</t>
-  </si>
-  <si>
-    <t>1047368039</t>
-  </si>
-  <si>
-    <t>ELKIN ZUÑIGA QUINTANA</t>
-  </si>
-  <si>
-    <t>73098243</t>
-  </si>
-  <si>
-    <t>WILSON MARTINEZ VERGARA</t>
-  </si>
-  <si>
-    <t>15049482</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL CALLE BEDOYA</t>
-  </si>
-  <si>
-    <t>73184551</t>
-  </si>
-  <si>
-    <t>CIRIN ESTEBAN CABARCAS PUERTAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9380C2EA-12A1-2A34-86B9-7C67B086D990}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12CCFC8-0F53-6E90-ED86-49B316DFA246}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646516CC-425E-47CB-8454-15CB24B02E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2071D97-7DD1-40E1-AACE-96E0C5CAC439}">
   <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1064,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>29520</v>
@@ -1087,13 +1087,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>29520</v>
@@ -1110,10 +1110,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
@@ -1133,13 +1133,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>29520</v>
@@ -1156,13 +1156,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>29520</v>
@@ -1179,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
         <v>29520</v>
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>29520</v>
@@ -1225,13 +1225,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>29520</v>
@@ -1248,13 +1248,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>29520</v>
@@ -1277,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>29520</v>
@@ -1294,13 +1294,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>29520</v>
@@ -1317,13 +1317,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>29520</v>
@@ -1340,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>29520</v>
@@ -1363,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>29520</v>
@@ -1386,13 +1386,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>29520</v>
@@ -1409,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>29520</v>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="F33" s="24">
         <v>29520</v>
